--- a/文本挖掘/nltk函数积累.xlsx
+++ b/文本挖掘/nltk函数积累.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文本挖掘\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NLPStudy\文本挖掘\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>函数名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,28 @@
   </si>
   <si>
     <t>查找文本中括号内单词所在的上下文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_contexts(arry)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看多个单词共同的上下文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text2.common_contexts(['monstrous','very'])</t>
+  </si>
+  <si>
+    <t>collocation_list()</t>
+  </si>
+  <si>
+    <t>查找text中频繁出现的双连词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text1.collocation_list()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,21 +915,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="64.08984375" customWidth="1"/>
-    <col min="2" max="2" width="57.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="64.125" customWidth="1"/>
+    <col min="2" max="2" width="57.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -929,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -940,7 +962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -948,7 +970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -959,503 +981,525 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="56" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="56" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="41" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="48" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="7"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="7"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="7"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="7"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B67" s="7"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="7"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="7"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B71" s="7"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B72" s="7"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="7"/>
+      <c r="B75" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
